--- a/annotated_dataset/output_batch_2.xlsx
+++ b/annotated_dataset/output_batch_2.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0429CA1-9F66-4445-9B7F-C6309D0B8F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190EC06-2EE9-433B-82D7-2D3733F3203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,6 +28,15 @@
     <t>Sentence 2</t>
   </si>
   <si>
+    <t>Word Similarity Score</t>
+  </si>
+  <si>
+    <t>Word Semantic Score</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
     <t>'Oh, yes, sir!'</t>
   </si>
   <si>
@@ -897,22 +893,13 @@
   </si>
   <si>
     <t>how's Sarah Grace?</t>
-  </si>
-  <si>
-    <t>Word Similarity Score</t>
-  </si>
-  <si>
-    <t>Word Semantic Score</t>
-  </si>
-  <si>
-    <t>Total Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,13 +910,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -940,7 +924,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -948,35 +932,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,1773 +1248,2208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="105.07421875" customWidth="1"/>
-    <col min="2" max="2" width="83.765625" customWidth="1"/>
-    <col min="3" max="3" width="13.69140625" customWidth="1"/>
-    <col min="4" max="4" width="15.23046875" customWidth="1"/>
-    <col min="5" max="5" width="14.4609375" customWidth="1"/>
+    <col min="1" max="1" width="38.69140625" customWidth="1"/>
+    <col min="2" max="2" width="34.23046875" customWidth="1"/>
+    <col min="3" max="3" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>290</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <f>0.6*C2+0.4*D2</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.26785714285714279</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.18333333333333329</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.87301587301587302</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.70055413469735717</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.86205073995771664</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.36375661375661372</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.70707070707070707</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.31129032258064521</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.51447368421052631</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.20833333333333329</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.70707070707070707</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.72463768115942029</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.96284829721362231</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.29166666666666657</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.20833333333333329</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.75524475524475521</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.71367521367521358</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.74175824175824179</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.81037037037037041</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.38157894736842102</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.71130952380952384</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.70321637426900585</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.69019607843137254</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.87742946708463943</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.52564102564102566</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.43665158371040719</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.63961038961038963</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.71328671328671334</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.35227272727272729</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.72538461538461529</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.87424242424242427</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
+        <v>261</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.54708222811671092</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.45804195804195802</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.24358974358974361</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2">
         <v>0</v>
       </c>
     </row>

--- a/annotated_dataset/output_batch_2.xlsx
+++ b/annotated_dataset/output_batch_2.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190EC06-2EE9-433B-82D7-2D3733F3203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F044D-1D81-46D9-AF48-B33DC31E47E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1248,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1290,7 +1303,8 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>0</v>
+        <f>0.6*C2+0.4*D2</f>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1305,6 +1319,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
         <v>0</v>
       </c>
     </row>
@@ -1320,6 +1335,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1335,7 +1351,8 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1350,7 +1367,8 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1365,7 +1383,8 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1380,7 +1399,8 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1395,7 +1415,8 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16071428571428567</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1410,7 +1431,8 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1425,7 +1447,8 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.42499999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1440,7 +1463,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.10999999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1455,7 +1479,8 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1470,7 +1495,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1485,7 +1511,8 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
@@ -1500,7 +1527,8 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.42033248081841429</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1515,7 +1543,8 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
@@ -1530,7 +1559,8 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.51723044397462992</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1545,7 +1575,8 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.21825396825396823</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1560,7 +1591,8 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1575,6 +1607,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1590,6 +1623,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1605,7 +1639,8 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.51428571428571423</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1620,7 +1655,8 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1635,7 +1671,8 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1650,7 +1687,8 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1665,7 +1703,8 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.42424242424242425</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1680,7 +1719,8 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.41142857142857142</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1695,7 +1735,8 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27857142857142858</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1710,7 +1751,8 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1725,7 +1767,8 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.18677419354838712</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1740,7 +1783,8 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1755,6 +1799,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1770,7 +1815,8 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.29142857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1785,7 +1831,8 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30868421052631578</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1800,7 +1847,8 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1815,7 +1863,8 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.51818181818181819</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1830,7 +1879,8 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1845,7 +1895,8 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1860,7 +1911,8 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12499999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1875,7 +1927,8 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1890,6 +1943,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1905,7 +1959,8 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.35625000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1920,6 +1975,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +1991,8 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1950,7 +2007,8 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.42424242424242425</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1965,7 +2023,8 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1980,7 +2039,8 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1995,7 +2055,8 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25909090909090909</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2010,6 +2071,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2025,7 +2087,8 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2040,7 +2103,8 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25714285714285717</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2055,7 +2119,8 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2070,7 +2135,8 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2085,7 +2151,8 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.41249999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2100,7 +2167,8 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="174.9" x14ac:dyDescent="0.4">
@@ -2115,7 +2183,8 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.57770897832817336</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2130,7 +2199,8 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17499999999999993</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2145,7 +2215,8 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2160,6 +2231,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2175,6 +2247,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2190,7 +2263,8 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12499999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2205,7 +2279,8 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2220,7 +2295,8 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2235,7 +2311,8 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2250,7 +2327,8 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24545454545454545</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2265,6 +2343,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
+        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2359,8 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4531468531468531</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2295,7 +2375,8 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42820512820512813</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2310,7 +2391,8 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.34666666666666662</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2325,6 +2407,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2340,7 +2423,8 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3428571428571428</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2355,7 +2439,8 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44505494505494508</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2370,7 +2455,8 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42499999999999993</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2385,6 +2471,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +2487,8 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2415,7 +2503,8 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3136363636363636</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2430,7 +2519,8 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2445,7 +2535,8 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2460,7 +2551,8 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48622222222222222</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2475,7 +2567,8 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.22894736842105259</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2490,7 +2583,8 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42678571428571427</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2505,7 +2599,8 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2520,7 +2615,8 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2535,7 +2631,8 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.43333333333333329</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2550,7 +2647,8 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2565,7 +2663,8 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2580,7 +2679,8 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2595,7 +2695,8 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2610,7 +2711,8 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13157894736842105</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2625,7 +2727,8 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
@@ -2640,7 +2743,8 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42192982456140349</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2655,7 +2759,8 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -2670,7 +2775,8 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11249999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -2685,7 +2791,8 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2700,7 +2807,8 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -2715,7 +2823,8 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10285714285714284</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2730,7 +2839,8 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2745,7 +2855,8 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2760,7 +2871,8 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.37333333333333335</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2775,7 +2887,8 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.41411764705882353</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
@@ -2790,7 +2903,8 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2805,7 +2919,8 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -2820,7 +2935,8 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -2835,6 +2951,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2850,7 +2967,8 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.52645768025078366</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2865,7 +2983,8 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.31538461538461537</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -2880,7 +2999,8 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -2895,7 +3015,8 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3428571428571428</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2910,7 +3031,8 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2619909502262443</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2925,7 +3047,8 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.38376623376623376</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2940,7 +3063,8 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44333333333333336</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2955,7 +3079,8 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42797202797202799</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -2970,7 +3095,8 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -2985,7 +3111,8 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -3000,7 +3127,8 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3015,7 +3143,8 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3030,7 +3159,8 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3045,7 +3175,8 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3060,7 +3191,8 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.21136363636363636</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3075,7 +3207,8 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42499999999999993</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -3090,7 +3223,8 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -3105,7 +3239,8 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -3120,7 +3255,8 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.37999999999999995</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -3135,7 +3271,8 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.30857142857142855</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
@@ -3150,7 +3287,8 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.43523076923076914</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3165,7 +3303,8 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -3180,7 +3319,8 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.29249999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -3195,7 +3335,8 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.52454545454545454</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -3210,7 +3351,8 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -3225,7 +3367,8 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <v>0</v>
+        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
+        <v>0.32824933687002655</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
@@ -3240,6 +3383,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3255,7 +3399,8 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -3270,7 +3415,8 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -3285,7 +3431,8 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -3300,7 +3447,8 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3315,7 +3463,8 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.27482517482517482</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3330,7 +3479,8 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.36363636363636359</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3345,7 +3495,8 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -3360,7 +3511,8 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -3375,7 +3527,8 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3390,7 +3543,8 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.14615384615384616</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3405,7 +3559,8 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.32727272727272722</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -3420,7 +3575,8 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -3435,7 +3591,8 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -3450,7 +3607,8 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/annotated_dataset/output_batch_2.xlsx
+++ b/annotated_dataset/output_batch_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalp/Documents/School/4NL3/Group Project/paraphrasing_detection/annotated_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F044D-1D81-46D9-AF48-B33DC31E47E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A77489-427A-7E42-94D0-A7238E136B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5440" yWindow="-24000" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="292">
   <si>
     <t>Sentence 1</t>
   </si>
@@ -906,6 +905,9 @@
   </si>
   <si>
     <t>how's Sarah Grace?</t>
+  </si>
+  <si>
+    <t>FLAG</t>
   </si>
 </sst>
 </file>
@@ -949,12 +951,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,22 +1265,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.69140625" customWidth="1"/>
-    <col min="2" max="2" width="34.23046875" customWidth="1"/>
-    <col min="3" max="3" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,8 +1297,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1301,13 +1309,15 @@
       <c r="C2" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.95</v>
+      </c>
       <c r="E2" s="2">
         <f>0.6*C2+0.4*D2</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1317,13 +1327,15 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1333,13 +1345,15 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1349,13 +1363,15 @@
       <c r="C5" s="2">
         <v>0.9</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1365,13 +1381,15 @@
       <c r="C6" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.9</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1381,13 +1399,15 @@
       <c r="C7" s="2">
         <v>0.45</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1397,13 +1417,15 @@
       <c r="C8" s="2">
         <v>0.47222222222222221</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0.65</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.54333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1413,13 +1435,15 @@
       <c r="C9" s="2">
         <v>0.26785714285714279</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.16071428571428567</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1429,13 +1453,15 @@
       <c r="C10" s="2">
         <v>0.25</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.95</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1445,13 +1471,15 @@
       <c r="C11" s="2">
         <v>0.70833333333333326</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.8</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.42499999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1461,13 +1489,15 @@
       <c r="C12" s="2">
         <v>0.18333333333333329</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.15</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0.10999999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1477,13 +1507,15 @@
       <c r="C13" s="2">
         <v>0.87301587301587302</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.9</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0.52380952380952384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.88380952380952382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1493,13 +1525,15 @@
       <c r="C14" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1509,13 +1543,15 @@
       <c r="C15" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1525,13 +1561,15 @@
       <c r="C16" s="2">
         <v>0.70055413469735717</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0.42033248081841429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.82033248081841426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1541,13 +1579,15 @@
       <c r="C17" s="2">
         <v>0.58333333333333326</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0.88</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>0.34999999999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1557,13 +1597,15 @@
       <c r="C18" s="2">
         <v>0.86205073995771664</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0.98</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.51723044397462992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.90923044397462993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1573,13 +1615,15 @@
       <c r="C19" s="2">
         <v>0.36375661375661372</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0.83</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0.21825396825396823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.55025396825396822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1589,13 +1633,15 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1605,13 +1651,15 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.23199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1621,13 +1669,15 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1637,13 +1687,15 @@
       <c r="C23" s="2">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0.51428571428571423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.81428571428571428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1653,13 +1705,15 @@
       <c r="C24" s="2">
         <v>0.51</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0.92</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1669,13 +1723,15 @@
       <c r="C25" s="2">
         <v>0.9285714285714286</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>0.96</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0.55714285714285716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94114285714285717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1685,13 +1741,15 @@
       <c r="C26" s="2">
         <v>0.8</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>0.98</v>
+      </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1701,13 +1759,15 @@
       <c r="C27" s="2">
         <v>0.70707070707070707</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>0.42424242424242425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.82424242424242422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1717,13 +1777,15 @@
       <c r="C28" s="2">
         <v>0.68571428571428572</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>0.94</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0.41142857142857142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.78742857142857137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1733,13 +1795,15 @@
       <c r="C29" s="2">
         <v>0.4642857142857143</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0.27857142857142858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.62657142857142856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1749,13 +1813,15 @@
       <c r="C30" s="2">
         <v>0.6</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0.89</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1765,13 +1831,15 @@
       <c r="C31" s="2">
         <v>0.31129032258064521</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>0.97</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>0.18677419354838712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5747741935483871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1781,13 +1849,15 @@
       <c r="C32" s="2">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1797,13 +1867,15 @@
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1813,13 +1885,15 @@
       <c r="C34" s="2">
         <v>0.48571428571428571</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>0.7</v>
+      </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>0.29142857142857143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1829,13 +1903,15 @@
       <c r="C35" s="2">
         <v>0.51447368421052631</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>0.92</v>
+      </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>0.30868421052631578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.67668421052631578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1845,13 +1921,15 @@
       <c r="C36" s="2">
         <v>0.9285714285714286</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>0.55714285714285716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1861,13 +1939,15 @@
       <c r="C37" s="2">
         <v>0.86363636363636365</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>0.78</v>
+      </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>0.51818181818181819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.83018181818181824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1877,13 +1957,15 @@
       <c r="C38" s="2">
         <v>0.58333333333333326</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>0.8</v>
+      </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>0.34999999999999992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1893,13 +1975,15 @@
       <c r="C39" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0.98</v>
+      </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1909,13 +1993,15 @@
       <c r="C40" s="2">
         <v>0.20833333333333329</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>0.12499999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.16499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1925,13 +2011,15 @@
       <c r="C41" s="2">
         <v>0.53333333333333333</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1941,13 +2029,15 @@
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1957,13 +2047,15 @@
       <c r="C43" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>0.35625000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.75625000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1973,13 +2065,15 @@
       <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>0.05</v>
+      </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1989,13 +2083,15 @@
       <c r="C45" s="2">
         <v>0.73333333333333339</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>0.67</v>
+      </c>
       <c r="E45" s="2">
         <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -2005,13 +2101,15 @@
       <c r="C46" s="2">
         <v>0.70707070707070707</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E46" s="2">
         <f t="shared" si="0"/>
-        <v>0.42424242424242425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.77224242424242429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -2021,13 +2119,15 @@
       <c r="C47" s="2">
         <v>0.72463768115942029</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>0.43478260869565216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.73478260869565215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -2037,13 +2137,15 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
       <c r="E48" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -2053,13 +2155,15 @@
       <c r="C49" s="2">
         <v>0.43181818181818182</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>0.25909090909090909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.65909090909090917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -2069,13 +2173,15 @@
       <c r="C50" s="2">
         <v>0</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>0.03</v>
+      </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -2085,13 +2191,15 @@
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
       <c r="E51" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2101,13 +2209,15 @@
       <c r="C52" s="2">
         <v>0.4285714285714286</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>0.6</v>
+      </c>
       <c r="E52" s="2">
         <f t="shared" si="0"/>
-        <v>0.25714285714285717</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.49714285714285716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2117,13 +2227,15 @@
       <c r="C53" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>0.4</v>
+      </c>
       <c r="E53" s="2">
         <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.56500000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -2133,13 +2245,15 @@
       <c r="C54" s="2">
         <v>0.875</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>0.9</v>
+      </c>
       <c r="E54" s="2">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -2149,13 +2263,15 @@
       <c r="C55" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
       <c r="E55" s="2">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -2165,13 +2281,15 @@
       <c r="C56" s="2">
         <v>0.9285714285714286</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2">
+        <v>0.6</v>
+      </c>
       <c r="E56" s="2">
         <f t="shared" si="0"/>
-        <v>0.55714285714285716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="174.9" x14ac:dyDescent="0.4">
+        <v>0.79714285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -2181,13 +2299,15 @@
       <c r="C57" s="2">
         <v>0.96284829721362231</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
       <c r="E57" s="2">
         <f t="shared" si="0"/>
-        <v>0.57770897832817336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.97770897832817338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -2197,13 +2317,15 @@
       <c r="C58" s="2">
         <v>0.29166666666666657</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
       <c r="E58" s="2">
         <f t="shared" si="0"/>
-        <v>0.17499999999999993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -2213,13 +2335,15 @@
       <c r="C59" s="2">
         <v>0.625</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2">
+        <v>0.9</v>
+      </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.7350000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -2229,13 +2353,15 @@
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
       <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -2245,13 +2371,15 @@
       <c r="C61" s="2">
         <v>0</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
       <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -2261,13 +2389,15 @@
       <c r="C62" s="2">
         <v>0.20833333333333329</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
       <c r="E62" s="2">
         <f t="shared" si="0"/>
         <v>0.12499999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -2277,13 +2407,15 @@
       <c r="C63" s="2">
         <v>0.28333333333333333</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E63" s="2">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -2293,13 +2425,15 @@
       <c r="C64" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>0.63</v>
+      </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -2309,13 +2443,15 @@
       <c r="C65" s="2">
         <v>0.68333333333333335</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>0.85</v>
+      </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -2325,13 +2461,15 @@
       <c r="C66" s="2">
         <v>0.40909090909090912</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E66" s="2">
         <f t="shared" si="0"/>
-        <v>0.24545454545454545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.59345454545454546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -2341,13 +2479,15 @@
       <c r="C67" s="2">
         <v>0</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
@@ -2357,13 +2497,15 @@
       <c r="C68" s="2">
         <v>0.75524475524475521</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>0.92</v>
+      </c>
       <c r="E68" s="2">
         <f t="shared" si="1"/>
-        <v>0.4531468531468531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.8211468531468531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>138</v>
       </c>
@@ -2373,13 +2515,15 @@
       <c r="C69" s="2">
         <v>0.71367521367521358</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>0.94</v>
+      </c>
       <c r="E69" s="2">
         <f t="shared" si="1"/>
-        <v>0.42820512820512813</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.80420512820512813</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
@@ -2389,13 +2533,15 @@
       <c r="C70" s="2">
         <v>0.57777777777777772</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2">
+        <v>0.4</v>
+      </c>
       <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>0.34666666666666662</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5066666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -2405,13 +2551,15 @@
       <c r="C71" s="2">
         <v>0</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
       <c r="E71" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
@@ -2421,13 +2569,15 @@
       <c r="C72" s="2">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E72" s="2">
         <f t="shared" si="1"/>
-        <v>0.3428571428571428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.3988571428571428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>146</v>
       </c>
@@ -2437,13 +2587,15 @@
       <c r="C73" s="2">
         <v>0.74175824175824179</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>0.44505494505494508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.79305494505494512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>148</v>
       </c>
@@ -2453,13 +2605,15 @@
       <c r="C74" s="2">
         <v>0.70833333333333326</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>0.85</v>
+      </c>
       <c r="E74" s="2">
         <f t="shared" si="1"/>
-        <v>0.42499999999999993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.7649999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>150</v>
       </c>
@@ -2469,13 +2623,15 @@
       <c r="C75" s="2">
         <v>0</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>0.65</v>
+      </c>
       <c r="E75" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>152</v>
       </c>
@@ -2485,13 +2641,15 @@
       <c r="C76" s="2">
         <v>0.9285714285714286</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
       <c r="E76" s="2">
         <f t="shared" si="1"/>
-        <v>0.55714285714285716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>154</v>
       </c>
@@ -2501,13 +2659,15 @@
       <c r="C77" s="2">
         <v>0.52272727272727271</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>0.3</v>
+      </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.3136363636363636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.4336363636363636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>156</v>
       </c>
@@ -2517,13 +2677,15 @@
       <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>158</v>
       </c>
@@ -2533,13 +2695,15 @@
       <c r="C79" s="2">
         <v>0.75</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>0.78</v>
+      </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>160</v>
       </c>
@@ -2549,13 +2713,15 @@
       <c r="C80" s="2">
         <v>0.81037037037037041</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>0.48622222222222222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.88622222222222224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>162</v>
       </c>
@@ -2565,13 +2731,15 @@
       <c r="C81" s="2">
         <v>0.38157894736842102</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>0.91</v>
+      </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
-        <v>0.22894736842105259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.59294736842105267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>164</v>
       </c>
@@ -2581,13 +2749,15 @@
       <c r="C82" s="2">
         <v>0.71130952380952384</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>0.99</v>
+      </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>0.42678571428571427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.82278571428571423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>166</v>
       </c>
@@ -2597,13 +2767,15 @@
       <c r="C83" s="2">
         <v>0.77380952380952384</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
       <c r="E83" s="2">
         <f t="shared" si="1"/>
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.86428571428571432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
@@ -2613,13 +2785,15 @@
       <c r="C84" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
       <c r="E84" s="2">
         <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>170</v>
       </c>
@@ -2629,13 +2803,15 @@
       <c r="C85" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>0.9</v>
+      </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>0.43333333333333329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.79333333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>172</v>
       </c>
@@ -2645,13 +2821,15 @@
       <c r="C86" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>174</v>
       </c>
@@ -2661,13 +2839,15 @@
       <c r="C87" s="2">
         <v>0.5</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>176</v>
       </c>
@@ -2677,13 +2857,15 @@
       <c r="C88" s="2">
         <v>1</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -2693,13 +2875,15 @@
       <c r="C89" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
@@ -2709,13 +2893,15 @@
       <c r="C90" s="2">
         <v>0.2192982456140351</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>0.12</v>
+      </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>0.13157894736842105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.17957894736842106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
@@ -2725,13 +2911,15 @@
       <c r="C91" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>0.15</v>
+      </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
@@ -2741,13 +2929,15 @@
       <c r="C92" s="2">
         <v>0.70321637426900585</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>0.42192982456140349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.76992982456140346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
@@ -2757,13 +2947,15 @@
       <c r="C93" s="2">
         <v>0.8</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>0.97</v>
+      </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
@@ -2773,13 +2965,15 @@
       <c r="C94" s="2">
         <v>0.1875</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>0.83</v>
+      </c>
       <c r="E94" s="2">
         <f t="shared" si="1"/>
-        <v>0.11249999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.44450000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
@@ -2789,13 +2983,15 @@
       <c r="C95" s="2">
         <v>0.9</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E95" s="2">
         <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.88800000000000012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>191</v>
       </c>
@@ -2805,13 +3001,15 @@
       <c r="C96" s="2">
         <v>1</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>0.88</v>
+      </c>
       <c r="E96" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -2821,13 +3019,15 @@
       <c r="C97" s="2">
         <v>0.1714285714285714</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
       <c r="E97" s="2">
         <f t="shared" si="1"/>
         <v>0.10285714285714284</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>195</v>
       </c>
@@ -2837,13 +3037,15 @@
       <c r="C98" s="2">
         <v>1</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
       <c r="E98" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -2853,13 +3055,15 @@
       <c r="C99" s="2">
         <v>0.16666666666666671</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
       <c r="E99" s="2">
         <f t="shared" si="1"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -2869,13 +3073,15 @@
       <c r="C100" s="2">
         <v>0.62222222222222223</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>0.8</v>
+      </c>
       <c r="E100" s="2">
         <f t="shared" si="1"/>
-        <v>0.37333333333333335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -2885,13 +3091,15 @@
       <c r="C101" s="2">
         <v>0.69019607843137254</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>0.77</v>
+      </c>
       <c r="E101" s="2">
         <f t="shared" si="1"/>
-        <v>0.41411764705882353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+        <v>0.72211764705882353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -2901,13 +3109,15 @@
       <c r="C102" s="2">
         <v>0.625</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>0.87</v>
+      </c>
       <c r="E102" s="2">
         <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.72300000000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
@@ -2917,13 +3127,15 @@
       <c r="C103" s="2">
         <v>1</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
       <c r="E103" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
@@ -2933,13 +3145,15 @@
       <c r="C104" s="2">
         <v>0.5</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>0.95</v>
+      </c>
       <c r="E104" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
@@ -2949,13 +3163,15 @@
       <c r="C105" s="2">
         <v>0</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
       <c r="E105" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
@@ -2965,13 +3181,15 @@
       <c r="C106" s="2">
         <v>0.87742946708463943</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2">
+        <v>0.67</v>
+      </c>
       <c r="E106" s="2">
         <f t="shared" si="1"/>
-        <v>0.52645768025078366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.79445768025078367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
@@ -2981,13 +3199,15 @@
       <c r="C107" s="2">
         <v>0.52564102564102566</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>0.17</v>
+      </c>
       <c r="E107" s="2">
         <f t="shared" si="1"/>
-        <v>0.31538461538461537</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.38338461538461538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>214</v>
       </c>
@@ -2997,13 +3217,15 @@
       <c r="C108" s="2">
         <v>1</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
       <c r="E108" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
@@ -3013,13 +3235,15 @@
       <c r="C109" s="2">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>0.78</v>
+      </c>
       <c r="E109" s="2">
         <f t="shared" si="1"/>
-        <v>0.3428571428571428</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.6548571428571428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
@@ -3029,13 +3253,15 @@
       <c r="C110" s="2">
         <v>0.43665158371040719</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>0.84</v>
+      </c>
       <c r="E110" s="2">
         <f t="shared" si="1"/>
-        <v>0.2619909502262443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.59799095022624438</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>220</v>
       </c>
@@ -3045,13 +3271,15 @@
       <c r="C111" s="2">
         <v>0.63961038961038963</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>0.03</v>
+      </c>
       <c r="E111" s="2">
         <f t="shared" si="1"/>
-        <v>0.38376623376623376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.39576623376623377</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>222</v>
       </c>
@@ -3061,13 +3289,15 @@
       <c r="C112" s="2">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>0.45</v>
+      </c>
       <c r="E112" s="2">
         <f t="shared" si="1"/>
-        <v>0.44333333333333336</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.62333333333333341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
@@ -3077,13 +3307,15 @@
       <c r="C113" s="2">
         <v>0.71328671328671334</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>0.81</v>
+      </c>
       <c r="E113" s="2">
         <f t="shared" si="1"/>
-        <v>0.42797202797202799</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.75197202797202811</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
@@ -3093,13 +3325,15 @@
       <c r="C114" s="2">
         <v>1</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
       <c r="E114" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
@@ -3109,13 +3343,18 @@
       <c r="C115" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
       <c r="E115" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
@@ -3125,13 +3364,15 @@
       <c r="C116" s="2">
         <v>0.77380952380952384</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>0.66</v>
+      </c>
       <c r="E116" s="2">
         <f t="shared" si="1"/>
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.72828571428571431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
@@ -3141,13 +3382,15 @@
       <c r="C117" s="2">
         <v>0.5</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2">
+        <v>0.81</v>
+      </c>
       <c r="E117" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.62400000000000011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
@@ -3157,13 +3400,15 @@
       <c r="C118" s="2">
         <v>0.75</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>0.75</v>
+      </c>
       <c r="E118" s="2">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
@@ -3173,13 +3418,15 @@
       <c r="C119" s="2">
         <v>0.8</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
       <c r="E119" s="2">
         <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
@@ -3189,13 +3436,15 @@
       <c r="C120" s="2">
         <v>0.35227272727272729</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
       <c r="E120" s="2">
         <f t="shared" si="1"/>
         <v>0.21136363636363636</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
@@ -3205,13 +3454,15 @@
       <c r="C121" s="2">
         <v>0.70833333333333326</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>0.69</v>
+      </c>
       <c r="E121" s="2">
         <f t="shared" si="1"/>
-        <v>0.42499999999999993</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.70099999999999985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
@@ -3221,13 +3472,15 @@
       <c r="C122" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
       <c r="E122" s="2">
         <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
@@ -3237,13 +3490,15 @@
       <c r="C123" s="2">
         <v>0.375</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="E123" s="2">
         <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
@@ -3253,13 +3508,15 @@
       <c r="C124" s="2">
         <v>0.6333333333333333</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>0.33</v>
+      </c>
       <c r="E124" s="2">
         <f t="shared" si="1"/>
-        <v>0.37999999999999995</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
@@ -3269,13 +3526,15 @@
       <c r="C125" s="2">
         <v>0.51428571428571423</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>0.89</v>
+      </c>
       <c r="E125" s="2">
         <f t="shared" si="1"/>
-        <v>0.30857142857142855</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+        <v>0.66457142857142859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
@@ -3285,13 +3544,15 @@
       <c r="C126" s="2">
         <v>0.72538461538461529</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
       <c r="E126" s="2">
         <f t="shared" si="1"/>
-        <v>0.43523076923076914</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.83523076923076922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>252</v>
       </c>
@@ -3301,13 +3562,15 @@
       <c r="C127" s="2">
         <v>0.41666666666666657</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="4">
+        <v>0.47</v>
+      </c>
       <c r="E127" s="2">
         <f t="shared" si="1"/>
-        <v>0.24999999999999994</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.43799999999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
@@ -3317,13 +3580,15 @@
       <c r="C128" s="2">
         <v>0.48749999999999999</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2">
+        <v>0.86</v>
+      </c>
       <c r="E128" s="2">
         <f t="shared" si="1"/>
-        <v>0.29249999999999998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.63650000000000007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
@@ -3333,13 +3598,15 @@
       <c r="C129" s="2">
         <v>0.87424242424242427</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
       <c r="E129" s="2">
         <f t="shared" si="1"/>
-        <v>0.52454545454545454</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92454545454545456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
@@ -3349,13 +3616,15 @@
       <c r="C130" s="2">
         <v>0.8</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="2">
+        <v>0.47</v>
+      </c>
       <c r="E130" s="2">
         <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.66799999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
@@ -3365,13 +3634,15 @@
       <c r="C131" s="2">
         <v>0.54708222811671092</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2">
+        <v>0.71</v>
+      </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
-        <v>0.32824933687002655</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.61224933687002658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -3381,13 +3652,15 @@
       <c r="C132" s="2">
         <v>0</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
       <c r="E132" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
@@ -3397,13 +3670,15 @@
       <c r="C133" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="2">
+        <v>0.85</v>
+      </c>
       <c r="E133" s="2">
         <f t="shared" si="2"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
@@ -3413,13 +3688,15 @@
       <c r="C134" s="2">
         <v>0.75</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2">
+        <v>0.65</v>
+      </c>
       <c r="E134" s="2">
         <f t="shared" si="2"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
@@ -3429,13 +3706,15 @@
       <c r="C135" s="2">
         <v>1</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
       <c r="E135" s="2">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
@@ -3445,13 +3724,15 @@
       <c r="C136" s="2">
         <v>1</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
       <c r="E136" s="2">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>271</v>
       </c>
@@ -3461,13 +3742,15 @@
       <c r="C137" s="2">
         <v>0.45804195804195802</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2">
+        <v>0.76</v>
+      </c>
       <c r="E137" s="2">
         <f t="shared" si="2"/>
-        <v>0.27482517482517482</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.57882517482517493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>273</v>
       </c>
@@ -3477,13 +3760,15 @@
       <c r="C138" s="2">
         <v>0.60606060606060597</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>0.38</v>
+      </c>
       <c r="E138" s="2">
         <f t="shared" si="2"/>
-        <v>0.36363636363636359</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.51563636363636367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>275</v>
       </c>
@@ -3493,13 +3778,15 @@
       <c r="C139" s="2">
         <v>0.875</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2">
+        <v>0.92</v>
+      </c>
       <c r="E139" s="2">
         <f t="shared" si="2"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>277</v>
       </c>
@@ -3509,13 +3796,15 @@
       <c r="C140" s="2">
         <v>0.5</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2">
+        <v>0.6</v>
+      </c>
       <c r="E140" s="2">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>279</v>
       </c>
@@ -3525,13 +3814,15 @@
       <c r="C141" s="2">
         <v>0.45</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>0.47</v>
+      </c>
       <c r="E141" s="2">
         <f t="shared" si="2"/>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>281</v>
       </c>
@@ -3541,13 +3832,15 @@
       <c r="C142" s="2">
         <v>0.24358974358974361</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
       <c r="E142" s="2">
         <f t="shared" si="2"/>
         <v>0.14615384615384616</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>283</v>
       </c>
@@ -3557,13 +3850,15 @@
       <c r="C143" s="2">
         <v>0.54545454545454541</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2">
+        <v>0.96</v>
+      </c>
       <c r="E143" s="2">
         <f t="shared" si="2"/>
-        <v>0.32727272727272722</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.71127272727272728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>285</v>
       </c>
@@ -3573,13 +3868,15 @@
       <c r="C144" s="2">
         <v>0.875</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
       <c r="E144" s="2">
         <f t="shared" si="2"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>287</v>
       </c>
@@ -3589,13 +3886,15 @@
       <c r="C145" s="2">
         <v>0.7857142857142857</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2">
+        <v>0.35</v>
+      </c>
       <c r="E145" s="2">
         <f t="shared" si="2"/>
-        <v>0.47142857142857142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.61142857142857143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>289</v>
       </c>
@@ -3605,10 +3904,12 @@
       <c r="C146" s="2">
         <v>0.9</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2">
+        <v>0.98</v>
+      </c>
       <c r="E146" s="2">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/annotated_dataset/output_batch_2.xlsx
+++ b/annotated_dataset/output_batch_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalp/Documents/School/4NL3/Group Project/paraphrasing_detection/annotated_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A77489-427A-7E42-94D0-A7238E136B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C992F-C7F9-1E48-9E8E-DB128C05E2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5440" yWindow="-24000" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="291">
   <si>
     <t>Sentence 1</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>how's Sarah Grace?</t>
-  </si>
-  <si>
-    <t>FLAG</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1265,7 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,11 +1307,11 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="D2" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <f>0.6*C2+0.4*D2</f>
-        <v>0.87999999999999989</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1346,11 +1343,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1382,11 +1379,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D6" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1400,11 +1397,11 @@
         <v>0.45</v>
       </c>
       <c r="D7" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.47000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1418,11 +1415,11 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="D8" s="2">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.54333333333333333</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1454,11 +1451,11 @@
         <v>0.25</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1472,11 +1469,11 @@
         <v>0.70833333333333326</v>
       </c>
       <c r="D11" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.745</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1490,11 +1487,11 @@
         <v>0.18333333333333329</v>
       </c>
       <c r="D12" s="2">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -1508,11 +1505,11 @@
         <v>0.87301587301587302</v>
       </c>
       <c r="D13" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0.88380952380952382</v>
+        <v>0.92380952380952386</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1580,11 +1577,11 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="D17" s="2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>0.70199999999999996</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1598,11 +1595,11 @@
         <v>0.86205073995771664</v>
       </c>
       <c r="D18" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.90923044397462993</v>
+        <v>0.91723044397462994</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1616,11 +1613,11 @@
         <v>0.36375661375661372</v>
       </c>
       <c r="D19" s="2">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0.55025396825396822</v>
+        <v>0.61825396825396828</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1652,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0.23199999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1688,11 +1685,11 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D23" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0.81428571428571428</v>
+        <v>0.71428571428571419</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -1706,11 +1703,11 @@
         <v>0.51</v>
       </c>
       <c r="D24" s="2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0.67400000000000004</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1724,11 +1721,11 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="D25" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0.94114285714285717</v>
+        <v>0.95714285714285718</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1742,11 +1739,11 @@
         <v>0.8</v>
       </c>
       <c r="D26" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0.872</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1778,11 +1775,11 @@
         <v>0.68571428571428572</v>
       </c>
       <c r="D28" s="2">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0.78742857142857137</v>
+        <v>0.81142857142857139</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1796,11 +1793,11 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="D29" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0.62657142857142856</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1814,11 +1811,11 @@
         <v>0.6</v>
       </c>
       <c r="D30" s="2">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>0.71599999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1832,11 +1829,11 @@
         <v>0.31129032258064521</v>
       </c>
       <c r="D31" s="2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>0.5747741935483871</v>
+        <v>0.58677419354838711</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1886,11 +1883,11 @@
         <v>0.48571428571428571</v>
       </c>
       <c r="D34" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.6914285714285715</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1904,11 +1901,11 @@
         <v>0.51447368421052631</v>
       </c>
       <c r="D35" s="2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>0.67668421052631578</v>
+        <v>0.70868421052631581</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1940,11 +1937,11 @@
         <v>0.86363636363636365</v>
       </c>
       <c r="D37" s="2">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>0.83018181818181824</v>
+        <v>0.71818181818181825</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1958,11 +1955,11 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="D38" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>0.66999999999999993</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1976,11 +1973,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D39" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>0.79200000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1994,11 +1991,11 @@
         <v>0.20833333333333329</v>
       </c>
       <c r="D40" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>0.16499999999999998</v>
+        <v>0.12499999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2030,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -2066,11 +2063,11 @@
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2084,11 +2081,11 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="D45" s="2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="0"/>
-        <v>0.70799999999999996</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2102,11 +2099,11 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="D46" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="0"/>
-        <v>0.77224242424242429</v>
+        <v>0.82424242424242422</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2120,11 +2117,11 @@
         <v>0.72463768115942029</v>
       </c>
       <c r="D47" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>0.73478260869565215</v>
+        <v>0.83478260869565224</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2174,11 +2171,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2210,11 +2207,11 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="D52" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="0"/>
-        <v>0.49714285714285716</v>
+        <v>0.45714285714285718</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2228,11 +2225,11 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="D53" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="0"/>
-        <v>0.56500000000000006</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2246,11 +2243,11 @@
         <v>0.875</v>
       </c>
       <c r="D54" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2282,11 +2279,11 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="D56" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="0"/>
-        <v>0.79714285714285715</v>
+        <v>0.75714285714285712</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="176" x14ac:dyDescent="0.2">
@@ -2336,11 +2333,11 @@
         <v>0.625</v>
       </c>
       <c r="D59" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>0.7350000000000001</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2426,11 +2423,11 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="D64" s="2">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>0.65700000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2444,11 +2441,11 @@
         <v>0.68333333333333335</v>
       </c>
       <c r="D65" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2462,11 +2459,11 @@
         <v>0.40909090909090912</v>
       </c>
       <c r="D66" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" si="0"/>
-        <v>0.59345454545454546</v>
+        <v>0.6454545454545455</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2498,11 +2495,11 @@
         <v>0.75524475524475521</v>
       </c>
       <c r="D68" s="2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" si="1"/>
-        <v>0.8211468531468531</v>
+        <v>0.85314685314685312</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2516,11 +2513,11 @@
         <v>0.71367521367521358</v>
       </c>
       <c r="D69" s="2">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" si="1"/>
-        <v>0.80420512820512813</v>
+        <v>0.82820512820512815</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2534,11 +2531,11 @@
         <v>0.57777777777777772</v>
       </c>
       <c r="D70" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>0.5066666666666666</v>
+        <v>0.54666666666666663</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2570,11 +2567,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="D72" s="2">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" si="1"/>
-        <v>0.3988571428571428</v>
+        <v>0.3428571428571428</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2588,11 +2585,11 @@
         <v>0.74175824175824179</v>
       </c>
       <c r="D73" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>0.79305494505494512</v>
+        <v>0.84505494505494516</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2606,11 +2603,11 @@
         <v>0.70833333333333326</v>
       </c>
       <c r="D74" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="1"/>
-        <v>0.7649999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2624,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2660,11 +2657,11 @@
         <v>0.52272727272727271</v>
       </c>
       <c r="D77" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.4336363636363636</v>
+        <v>0.51363636363636367</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -2696,11 +2693,11 @@
         <v>0.75</v>
       </c>
       <c r="D79" s="2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>0.76200000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2732,11 +2729,11 @@
         <v>0.38157894736842102</v>
       </c>
       <c r="D81" s="2">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
-        <v>0.59294736842105267</v>
+        <v>0.62894736842105259</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -2750,11 +2747,11 @@
         <v>0.71130952380952384</v>
       </c>
       <c r="D82" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>0.82278571428571423</v>
+        <v>0.82678571428571423</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2804,11 +2801,11 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D85" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>0.79333333333333333</v>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2822,11 +2819,11 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="D86" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2876,11 +2873,11 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="D89" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -2894,11 +2891,11 @@
         <v>0.2192982456140351</v>
       </c>
       <c r="D90" s="2">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>0.17957894736842106</v>
+        <v>0.33157894736842108</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2912,11 +2909,11 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="D91" s="2">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -2930,11 +2927,11 @@
         <v>0.70321637426900585</v>
       </c>
       <c r="D92" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>0.76992982456140346</v>
+        <v>0.82192982456140351</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2948,11 +2945,11 @@
         <v>0.8</v>
       </c>
       <c r="D93" s="2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>0.86799999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2966,11 +2963,11 @@
         <v>0.1875</v>
       </c>
       <c r="D94" s="2">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="1"/>
-        <v>0.44450000000000001</v>
+        <v>0.51249999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2984,11 +2981,11 @@
         <v>0.9</v>
       </c>
       <c r="D95" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="1"/>
-        <v>0.88800000000000012</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3002,11 +2999,11 @@
         <v>1</v>
       </c>
       <c r="D96" s="2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" si="1"/>
-        <v>0.95199999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3074,11 +3071,11 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="D100" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="1"/>
-        <v>0.69333333333333336</v>
+        <v>0.77333333333333343</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3092,11 +3089,11 @@
         <v>0.69019607843137254</v>
       </c>
       <c r="D101" s="2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" si="1"/>
-        <v>0.72211764705882353</v>
+        <v>0.81411764705882361</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -3110,11 +3107,11 @@
         <v>0.625</v>
       </c>
       <c r="D102" s="2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" si="1"/>
-        <v>0.72300000000000009</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3146,11 +3143,11 @@
         <v>0.5</v>
       </c>
       <c r="D104" s="2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" si="1"/>
-        <v>0.67999999999999994</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3182,11 +3179,11 @@
         <v>0.87742946708463943</v>
       </c>
       <c r="D106" s="2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" si="1"/>
-        <v>0.79445768025078367</v>
+        <v>0.92645768025078368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3200,11 +3197,11 @@
         <v>0.52564102564102566</v>
       </c>
       <c r="D107" s="2">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" si="1"/>
-        <v>0.38338461538461538</v>
+        <v>0.51538461538461533</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3236,11 +3233,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="D109" s="2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="E109" s="2">
         <f t="shared" si="1"/>
-        <v>0.6548571428571428</v>
+        <v>0.74285714285714288</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3254,11 +3251,11 @@
         <v>0.43665158371040719</v>
       </c>
       <c r="D110" s="2">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="E110" s="2">
         <f t="shared" si="1"/>
-        <v>0.59799095022624438</v>
+        <v>0.66199095022624432</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -3272,11 +3269,11 @@
         <v>0.63961038961038963</v>
       </c>
       <c r="D111" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E111" s="2">
         <f t="shared" si="1"/>
-        <v>0.39576623376623377</v>
+        <v>0.38376623376623376</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3290,14 +3287,14 @@
         <v>0.73888888888888893</v>
       </c>
       <c r="D112" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E112" s="2">
         <f t="shared" si="1"/>
-        <v>0.62333333333333341</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>0.64333333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
@@ -3308,14 +3305,14 @@
         <v>0.71328671328671334</v>
       </c>
       <c r="D113" s="2">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" si="1"/>
-        <v>0.75197202797202811</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.82797202797202796</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
@@ -3333,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
@@ -3350,11 +3347,8 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F115" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
@@ -3365,14 +3359,14 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="D116" s="2">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" si="1"/>
-        <v>0.72828571428571431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>0.86428571428571432</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
@@ -3383,14 +3377,14 @@
         <v>0.5</v>
       </c>
       <c r="D117" s="2">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2">
         <f t="shared" si="1"/>
-        <v>0.62400000000000011</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
@@ -3401,14 +3395,14 @@
         <v>0.75</v>
       </c>
       <c r="D118" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2">
         <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
@@ -3444,7 +3438,7 @@
         <v>0.21136363636363636</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
@@ -3455,14 +3449,14 @@
         <v>0.70833333333333326</v>
       </c>
       <c r="D121" s="2">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2">
         <f t="shared" si="1"/>
-        <v>0.70099999999999985</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
@@ -3480,7 +3474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
@@ -3491,14 +3485,14 @@
         <v>0.375</v>
       </c>
       <c r="D123" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" si="1"/>
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
@@ -3509,14 +3503,14 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="D124" s="2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E124" s="2">
         <f t="shared" si="1"/>
-        <v>0.51200000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
@@ -3527,14 +3521,14 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="D125" s="2">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" si="1"/>
-        <v>0.66457142857142859</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>0.70857142857142863</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
@@ -3552,7 +3546,7 @@
         <v>0.83523076923076922</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>252</v>
       </c>
@@ -3563,14 +3557,14 @@
         <v>0.41666666666666657</v>
       </c>
       <c r="D127" s="4">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" si="1"/>
-        <v>0.43799999999999994</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
@@ -3581,11 +3575,11 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="D128" s="2">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" si="1"/>
-        <v>0.63650000000000007</v>
+        <v>0.49249999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -3617,11 +3611,11 @@
         <v>0.8</v>
       </c>
       <c r="D130" s="2">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" si="1"/>
-        <v>0.66799999999999993</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -3635,11 +3629,11 @@
         <v>0.54708222811671092</v>
       </c>
       <c r="D131" s="2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
-        <v>0.61224933687002658</v>
+        <v>0.72824933687002658</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3671,11 +3665,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D133" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3689,11 +3683,11 @@
         <v>0.75</v>
       </c>
       <c r="D134" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" si="2"/>
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3743,11 +3737,11 @@
         <v>0.45804195804195802</v>
       </c>
       <c r="D137" s="2">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" si="2"/>
-        <v>0.57882517482517493</v>
+        <v>0.67482517482517479</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3761,11 +3755,11 @@
         <v>0.60606060606060597</v>
       </c>
       <c r="D138" s="2">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="E138" s="2">
         <f t="shared" si="2"/>
-        <v>0.51563636363636367</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3779,11 +3773,11 @@
         <v>0.875</v>
       </c>
       <c r="D139" s="2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E139" s="2">
         <f t="shared" si="2"/>
-        <v>0.89300000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3797,11 +3791,11 @@
         <v>0.5</v>
       </c>
       <c r="D140" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E140" s="2">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3815,11 +3809,11 @@
         <v>0.45</v>
       </c>
       <c r="D141" s="2">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="E141" s="2">
         <f t="shared" si="2"/>
-        <v>0.45800000000000002</v>
+        <v>0.47000000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -3851,11 +3845,11 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="D143" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" si="2"/>
-        <v>0.71127272727272728</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3887,11 +3881,11 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="D145" s="2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E145" s="2">
         <f t="shared" si="2"/>
-        <v>0.61142857142857143</v>
+        <v>0.87142857142857144</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3905,11 +3899,11 @@
         <v>0.9</v>
       </c>
       <c r="D146" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" si="2"/>
-        <v>0.93200000000000005</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
   </sheetData>
